--- a/biology/Médecine/Veine_gastro-épiploïque/Veine_gastro-épiploïque.xlsx
+++ b/biology/Médecine/Veine_gastro-épiploïque/Veine_gastro-épiploïque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_gastro-%C3%A9piplo%C3%AFque</t>
+          <t>Veine_gastro-épiploïque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les veines gastro-épiploïques ou veines gastro-omentales sont des vaisseaux sanguins qui vascularisent la grande courbure gastrique. Il en existe une gauche et une droite[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les veines gastro-épiploïques ou veines gastro-omentales sont des vaisseaux sanguins qui vascularisent la grande courbure gastrique. Il en existe une gauche et une droite.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veine_gastro-%C3%A9piplo%C3%AFque</t>
+          <t>Veine_gastro-épiploïque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>La veine gastro-épiploïque gauche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La veine gastro-épiploïque gauche vascularise la partie verticale de la grande courbure gastrique[1]. Son sang va ensuite se jeter dans la veine splénique et rejoindra donc le réseau porte. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La veine gastro-épiploïque gauche vascularise la partie verticale de la grande courbure gastrique. Son sang va ensuite se jeter dans la veine splénique et rejoindra donc le réseau porte. 
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Veine_gastro-%C3%A9piplo%C3%AFque</t>
+          <t>Veine_gastro-épiploïque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>La veine gastro-épiploïque droite</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La veine gastro-épiploïque droite vascularise la partie horizontale (caudale) de la grande courbure gastrique[1]. Elle va former ensuite avec la réunion de la veine colique supérieure droite et la veine pancréatico-duodénale supérieure et antérieur, le tronc gastro-colique de Henlé. Ce dernière se jettera ensuite dans la veine mésentérique supérieure et rejoindra donc aussi la veine porte.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La veine gastro-épiploïque droite vascularise la partie horizontale (caudale) de la grande courbure gastrique. Elle va former ensuite avec la réunion de la veine colique supérieure droite et la veine pancréatico-duodénale supérieure et antérieur, le tronc gastro-colique de Henlé. Ce dernière se jettera ensuite dans la veine mésentérique supérieure et rejoindra donc aussi la veine porte.
 </t>
         </is>
       </c>
